--- a/doc/Felder.xlsx
+++ b/doc/Felder.xlsx
@@ -2,16 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Kopf" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SLGA" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="SLLA" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Legende" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Auftragsdatei" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Legende" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="179">
   <si>
     <t xml:space="preserve">Segment</t>
   </si>
@@ -353,6 +354,197 @@
   </si>
   <si>
     <t xml:space="preserve">Institutionskennzeichen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFIKATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifikator des Objektes „Krankenkassen-Kommunikation“ Konstante ‘500000’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version der Auftragssatzstruktur. Ändert sich, wenn Felder des Auftragssatzes hinzugefügt, gelöscht oder geändert werden. ‘01’: erste Version des Verfahrens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÄNGE_ AUFTRAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Länge der Auftragsdatei in Bytes (Objekt „KrankenkassenKommunikation“) Bei VERSION = ‘01’ steht hier als Konstante ‘00000348’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEQUENZ_NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laufende Nummer bei einer Teillieferung. Gibt die Sequenznummer der Datei an, sofern eine Nachricht auf mehrere Datenträger oder physikalische
+Dateien bei DFÜ verteilt werden
+muss.
+‘000’: Nachricht ist nicht segmentiert
+‘001’: Erster Teil der Nachricht.
+bis
+‘098’: Teil 98 der Nachricht
+‘9xx’: Letzter Teil der Nachricht,
+dabei gibt xx die Nummer des letzten Teils der Teillieferung an.
+Die Segmentierung darf nur nach
+bilateraler Abstimmung genutzt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERFAHREN _KENNUNG (Dateityp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die VERFAHREN_KENNUNG unterliegt ständigen aufwärtskompatiblen Änderungen, siehe Anlage 4 zu den Gemeinsamen Grundsätzen Technik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFER _NUMMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laufende Transfernummer bei der Übertragung zwischen zwei direkt verbundenen Kommunikationspartnern gemäß KKS-Verfahren. Im KKS-Verfahren wird für die Übertragung aus VERFAHREN_KENNUNG und der TRANSFERNUMMER ein Transferdateiname erzeugt. Das Feld TRANSFER_NUMMER wird unabhängig vom Feld VERFAHREN_KENNUNG festgelegt. Die Transfernummer hat keinen Bezug zur lfd. Nr. des Vorlaufsatzes in den Nutzdaten. Sie wird ab ‘999‘ wieder auf ‘0‘ gesetzt. Bei jeder erfolgreichen Übertragung einer Datei wird TRANSFER_NUMMER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERFAHREN _KENNUNG _SPEZIFIKATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weitere Spezifikation des Verfahrens innerhalb des in VERFAHREN_KENNUNG festgelegten Verfahrens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABSENDER _EIGNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absendender Eigner der Nutzdaten. Identifikation des Absenders. (z. B. IK: 9 Stellen, Absendernummer (Betriebsnummer oder gesonderte Absendernummer): 8 Stellen, KVIdentifikation: 4 Stellen oder KZVNummer: 5 Stellen) Der Eigner ist für die Korrektheit der Daten verantwortlich und nimmt mit seinem Zertifikat die Verschlüsselung und Signierung vor. Dies kennzeichnet die Stelle, die die Verschlüsselung vornimmt. Sofern im Datenaustausch Leistungserbringer über Rechenzentren Daten austauschen, ist das Rechenzentrum der Eigner, da es die Daten vor Weitergabe aufbereitet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABSENDER_PHYSIKALISCH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatsächlicher physikalischer Absender der Nutzdaten.
+Identifikation desselben Typs wie im
+Feld ABSENDER_EIGNER angegeben.
+Hier steht gegebenenfalls auch eine
+Datenübermittlungsstelle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPFÄNGER _NUTZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empfänger, der die Daten nutzen soll Identifikation desselben Typs wie im Feld ABSENDER_EIGNER angegeben. Dieser Empfänger ist im Besitz des Schlüssels, um verschlüsselte Informationen zu entschlüsseln. Der Nutzer nimmt die Weiterverarbeitung der Daten vor. Im Fall des Datenaustausches mit den Leistungserbringern ist hier die Datenannahmestelle mit Entschlüsselungsbefugnis gemäß Kostenträgerdatei einzutragen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPFÄNGER _PHYSIKALISCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empfänger, der Daten physikalisch empfangen soll (= nächster Empfänger). Identifikation desselben Typs wie im Feld ABSENDER_EIGNER angegeben. Hier steht gegebenenfalls auch eine Datenübermittlungsstelle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEHLER _NUMMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehler-Nr. laut Fehlerkatalog bei Rücksendungen von Dateien. ‘000000’: Kein Fehler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEHLER _MAßNAHME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durchzuführende Maßnahme laut Fehlerkatalog. ‘000000’: Keine Maßnahme erforderlich Siehe Feld FEHLER_NUMMER. Gemäß dem Fehlerverfahren festzulegen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEINAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der vom Anwendungssystem vergebene Dateiname. Siehe Kapitel 3.1 der Anlage 2 zu den Gemeinsamen Grundsätzen Technik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATUM _ERSTELLUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellungsdatum der Datei aus der Anwendung. Format JHJJMMTThhmmss (Jahr, Monat, Tag, Stunde, Minute, Sekunde). Aus den Feldern ABSENDER_EIGNER, VERFAHREN_KENNUNG und DATUM_ERSTELLUNG kann ein eindeutiger Identifikator gebildet werden, anhand dessen eine Sendung eindeutig identifiziert werden kann. Es ist vom Absender-Eigner sicherzustellen, dass zwei unterschiedliche Sendungen nicht mit demselben Identifikator verschickt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATUM _ÜBERTRAGUNG _GESENDET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start der Übermittlung der Datei. Format JHJJMMTThhmmss (Jahr, Monat, Tag, Stunde, Minute, Sekunde) Diese Zeit kann als LoggingInformation oder auch für Wiederaufsatzverfahren zwischen zwei Partnern genutzt werden. Wird vom Absender ausgefüllt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATUM _ÜBERTRAGUNG _EMPFANGEN _START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start des Empfangs der Datei. Format JHJJMMTThhmmss (Jahr, Monat, Tag, Stunde, Minute, Sekunde). Wird nur vom ersten Empfänger ausgefüllt, der vertraglich die annehmende Stelle ist und deren Annahmezeit daher vertragliche Auswirkungen hat (im Falle des vdek ist
+dies T-Systems). Das Feld ist vom
+ersten Absender mit numerischen
+Nullen aufzufüllen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATUM _ÜBERTRAGUNG _EMPFANGEN _ENDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ende der Empfangsübertragung der Datei. Format JHJJMMTThhmmss (Jahr, Monat, Tag, Stunde, Minute, Sekunde). Wird vom Empfänger ausgefüllt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEIVERSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versionsnummer der Datei. Wird derzeit in keinem Verfahren benutzt. Muss auf ‘000000’ gesetzt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KORREKTUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wird derzeit in keinem Verfahren benutzt. Muss auf ‘0’ gesetzt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEIGRÖßE _NUTZDATEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dateigröße der Nutzdatendatei in Bytes. (unverschlüsselt und unkomprimiert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEIGRÖßE _ÜBERTRAGUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dateigröße der übertragenen Nutzdatendatei in Bytes. (Länge nach eventueller Verschlüsselung, Unterschrift und Komprimierung)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEICHENSATZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘I1‘: ISO/IEC 8859-1: 1998(E) bzw. DIN 66303: 2000-06 * die Zeichensätze sind identisch ‘I5’: ISO 8859-15 ‘I7’: ISO 7-Bit, Code gemäß DIN 66003 DRV (Deutsche Referenzversion) ‘I8’: DIN 66303 in der Fassung von 1986-11(DRV8) * die neue Norm des DIN 66303 wird als I1 verwendet ‘EB’:EBCDIC (EBCDIC ist im Datenaustausch mit den Leistungserbringern
+gemäß § 294 ff. SGB V nicht zulässig)
+’P8’ IBM-CODEPAGE 850
+(gilt nur nach bilateraler Vereinbarung)
+’U8’UTF-8
+(gilt ausschließlich für den Datenaustausch mit der ZfA)
+‘BI’: Binär</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOMPRIMIERUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Komprimierungsverfahren ist immer bilateral zwischen dem Absender und dem Empfänger abzustimmen. Die GKV nutzt als bevorzugtes Produkt „gzip“. Weitere Verfahren sind mit den Annahmestellen der GKV abzustimmen. 00: keine 01: COMPRESS (gültig bis 30.06.2017) 02: gzip 03: ZIP 04: keine Belegung 05: (xPRESS) (gültig bis 30.06.2017) 06: FLAM (gültig bis 30.06.2017) 07: bzip2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERSCHLÜSSELUNGSART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhalte nur in Kombination mit dem Feld ELEKTRONISCHE_ UNTERSCHRIFT! 00 + 00: keine 03 + 03: PKCS#7-Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEKTRONISCHE_UNTERSCH RIFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhalte nur in Kombination mit dem Feld VERSCHÜSSELUNGSART! 00 + 00: keine 03 + 03: PKCS#7-Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-MAIL-ADRESSE ABSENDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Mail-Adresse des Absenders; kann optional eingetragen werden; Die E-Mail-Adresse wurde auf 70 Zeichen erweitert, analog zum DSKO der DEÜV. Das Feld E-MAIL-ADRESSE ABSENDER startet weiterhin im Feld 275 und kann bei Bedarf auf das Feld DATEI_BEZEICHNUNG bis zur Stelle 344 erweitert werden. Alternative Nutzung: Interne Kommunikation zwischen Organisationen der Krankenkassen Dieses Feld kann als DATEINAME_PHYSIKALISCH genutzt werden um spezifische Informationen für die Verarbeitung innerhalb der Krankenkassen-Organisationen zu erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEI _BEZEICHNUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Anzahl der Gesamtpakete wird 2-stellig rechtsbündig in das Feld DATEI_BEZEICHNUNG (Stelle 347- 348) gespeichert. Alternative Nutzung: Variabler Bereich, um Zusatzinformationen zur Datei bereitzustellen</t>
   </si>
   <si>
     <t xml:space="preserve">Nr</t>
@@ -401,11 +593,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -423,29 +616,34 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="24"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
+      <color rgb="FFCC0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -453,6 +651,28 @@
       <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -460,50 +680,28 @@
       <color rgb="FF0000EE"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFCC0000"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="19">
@@ -512,30 +710,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFA6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -553,6 +727,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFA6"/>
       </patternFill>
     </fill>
     <fill>
@@ -640,7 +838,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -664,25 +862,56 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -763,7 +992,39 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -771,14 +1032,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -800,30 +1053,29 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Hyperlink" xfId="26"/>
-    <cellStyle name="Status" xfId="27"/>
-    <cellStyle name="Good" xfId="28"/>
-    <cellStyle name="Neutral" xfId="29"/>
-    <cellStyle name="Bad" xfId="30"/>
-    <cellStyle name="Warning" xfId="31"/>
-    <cellStyle name="Error" xfId="32"/>
-    <cellStyle name="Accent" xfId="33"/>
-    <cellStyle name="Accent 1" xfId="34"/>
-    <cellStyle name="Accent 2" xfId="35"/>
-    <cellStyle name="Accent 3" xfId="36"/>
+    <cellStyle name="Accent 1 14" xfId="20"/>
+    <cellStyle name="Accent 13" xfId="21"/>
+    <cellStyle name="Accent 2 15" xfId="22"/>
+    <cellStyle name="Accent 3 16" xfId="23"/>
+    <cellStyle name="Bad 10" xfId="24"/>
+    <cellStyle name="Error 12" xfId="25"/>
+    <cellStyle name="Footnote 5" xfId="26"/>
+    <cellStyle name="Good 8" xfId="27"/>
+    <cellStyle name="Heading 1 1" xfId="28"/>
+    <cellStyle name="Heading 2 2" xfId="29"/>
+    <cellStyle name="Hyperlink 6" xfId="30"/>
+    <cellStyle name="Neutral 9" xfId="31"/>
+    <cellStyle name="Note 4" xfId="32"/>
+    <cellStyle name="Status 7" xfId="33"/>
+    <cellStyle name="Text 3" xfId="34"/>
+    <cellStyle name="Warning 11" xfId="35"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -903,7 +1155,7 @@
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
@@ -1070,7 +1322,7 @@
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
@@ -1361,7 +1613,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -1376,15 +1628,15 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
@@ -1750,7 +2002,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -1759,6 +2011,321 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1780,84 +2347,84 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>113</v>
+      <c r="A1" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="n">
+      <c r="A2" s="29" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="C2" s="18"/>
-      <c r="E2" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="22"/>
+      <c r="E2" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="29" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="E3" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="24"/>
+        <v>172</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="E3" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="29" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="E4" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="26"/>
+        <v>174</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="E4" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="29" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="E5" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="28"/>
+        <v>176</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="E5" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="29" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="C6" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>

--- a/doc/Felder.xlsx
+++ b/doc/Felder.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Kopf" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SLGA" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="SLLA" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Auftragsdatei" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Legende" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Heilmittel" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sonstige" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Legende" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="245">
   <si>
     <t xml:space="preserve">Segment</t>
   </si>
@@ -545,6 +547,204 @@
   </si>
   <si>
     <t xml:space="preserve">Die Anzahl der Gesamtpakete wird 2-stellig rechtsbündig in das Feld DATEI_BEZEICHNUNG (Stelle 347- 348) gespeichert. Alternative Nutzung: Variabler Bereich, um Zusatzinformationen zur Datei bereitzustellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betriebsstättennummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhalt des Feldes 'Betriebsstättennummer' (ggf. IK des Krankenhauses) aus der Verordnung ist zwingend anzugeben. Ist die Betriebsstättennummer nicht vorhanden, ist 999999999 anzugeben, soweit keine anderweitigen Regelungen bestehen. Es sind nur Ziffern von 0 bis 9 zu verwenden. Dies gilt auch bis zum Zeitpunkt der endgültigen Einführung der Betriebsstättennummer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebenslange Arztnummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhalt des Feldes 'Vertragsarztnummer/Arzt-Nr.' aus der Verordnung ist zwingend anzugeben. Das Auffüllen des Feldes auf 9 Stellen ist unzulässig. Es sind nur die Ziffern 0 - 9 zu verwenden. Ist keine Nummer eingetragen, ist das Feld mit „999999999“ zu übermitteln, sofern keine anderweitigen Regelungen bestehen. Bei Verordnungen durch Zahnärzte ist die Nummer des Zahnarztes einzutragen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verordnungsdatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JJJJMMTT Das Verordnungsdatum aus der Verordnung ist zwingend anzugeben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuzahlungskennzeichen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siehe Schlüssel Zuzahlungskennzeichen Anlage 3 Abschnitt 8.1.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 = Zuzahlungsbefreit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indikationsschlüssel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der auf der Heilmittelverordnung angegebene Indikationsschlüssel ist hier anzugeben. Es sind nur Ziffern 0-9 und Buchstaben (ohne Umlaute) zugelassen. Die Übermittlung von Leerund Sonderzeichen ist nicht zulässig. Beispiel für einen korrekten Indikationsschlüssel: ZN2a oder PS2. Sofern der Indikationsschlüssel durch den Vertragsarzt nicht angegeben wurde, ist das Feld mit "9999" zu füllen soweit keine anderweitigen Regelungen bestehen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzeichen Verordnungsart bei Heilmitteln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das "Kennzeichen Verordnungsart bei Heilmitteln" ist zwingend der vertragsärztlichen Verordnung (Verordnungsmuster 13, 14, 18) zu entnehmen. Das Kennzeichen ist entsprechend Anlage 3, Abschnitt 8.1.12 anzugeben. Fehlt diese Information auf der Verordnung ist das Feld mit "99" zu füllen; soweit keine anderweitigen Regelungen bestehen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 = Erstverordnung (Regelfall)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzeichen Verordnungsbesonderheiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siehe Schlüssel Kennzeichen Verordnungsbesonderheiten; Anlage 3 Abschnitt 8.1.11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 = Verordnung von einem Zahnarzt/Kieferorthopäden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfallkennzeichen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siehe Schlüssel Unfall/Sonstiges Anlage 3 Abschnitt 8.1.2 Die Angabe der Daten auf der Verordnung (lt. Anlage 5, Inhalt der Urbelege, Muster 13, Muster 14, Muster 18) sind zwingend im Datenaustausch anzugeben bzw. zu übermitteln.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 = Arbeitsunfall / Wegeunfall / Berufskrankheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzeichen BVG/Sonstiges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siehe Schlüssel BVG Anlage 3 Abschnitt 8.1.2.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 = BVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behandlungsbeginn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JJJJMMTT Datum des spätesten Behandlungsbeginns; ist zwingend anzugeben, falls auf der Verordnung eingetragen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therapiebericht angefordert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1" = Therapiebericht angefordert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hausbesuch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1" = Hausbesuch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genehmigungskennzeichen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hier ist die durch die Krankenkasse bei der Kostenzusage vergebene Genehmigungsnummer oder das Aktenzeichen einzutragen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum der Genehmigung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JJJJMMTT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art der Genehmigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siehe Schlüssel Art der Genehmigung, Anlage 3, Abschnitt 8.1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1 = Genehmigung im Einzelfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbetrag Brutto .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbetrag Brutto je Abrechnungsfall (einschl. evtl. Mehrwertsteuer). Berechnungsregel: Summe über alle Abrechnungspositionen des Abrechnungsfalls von: (((ENF.Einzelbetrag der Abrechnungsposition mal ENF.Anzahl/Menge) plus ggf. MWS.Betrag Mehrwertsteuer)) kaufmännisch gerundet).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbetrag gesetzliche Zuzahlung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbetrag gesetzliche Zuzahlung je Abrechnungsfall. Berechnungsregel: Summe (BES.Gesamtbetrag prozentuale Zuzahlung je Abrechnungsfall +BES.PauschalerZuzahlungsbetrag je Abrechnungsfall +(Summe über alle Leistungen (ZUZ.Betrag Gesetzliche Zuzahlung)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbetrag prozentuale Zuzahlung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbetrag prozentuale Zuzahlung je Abrechnungsfall. Berechnungsregel: Summe über alle Abrechnungspositionen des Abrechnungsfalls von: (ENF.Betrag der Zuzahlung mal ENF.Anzahl/Menge) kaufmännisch gerundet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pauschaler Zuzahlungsbetrag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pauschaler Zuzahlungsbetrag je Abrechnungsfall (Verordnungsblatt). 10 Euro maximal, jedoch höchstens die Differenz Gesamtbetrag Brutto abzüglich Gesamtbetrag prozentuale Zuzahlung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbetrag Forderung gesetzliche Zuzahlung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbetrag Forderung gesetzliche Zuzahlung je Abrechnungsfall. Berechnungsregel: Summe (GZF.Gesamtbetrag prozentuale Zuzahlung je Abrechnungsfall + GZF.Pauschaler Zuzahlungsbetrag je Abrechnungsfall).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbetrag Forderung prozentuale Zuzahlung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbetrag Forderung prozentuale Zuzahlung je Abrechnungsfall Berechnungsregel: Summe über alle Abrechnungspositionen des Abrechnungsfalls von: (EHE.Betrag der Zuzahlung mal EHE.Anzahl/Menge)kaufmännisch gerundet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forderung pauschaler Zuzahlungsbetrag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forderung Pauschaler Zuzahlungsbetrag je Abrechnungsfall (Verordnungsblatt): 10,00 Euro, jedoch höchstens die Differenz Gesamtbetrag Brutto abzüglich Gesamtbetrag prozentuale Zuzahlung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verordnungs-, Ausstell- oder Einsatzdatum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JJJJMMTT. Verordnungsdatum aus Verordnung oder Ausstell- oder Einsatzdaten sind zwingend anzugeben, soweit diese vorgesehen oder vereinbart sind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siehe Schlüssel Unfall/Sonstiges Anlage 3 Abschnitt 8.1.2 Die Angabe der Daten auf der Verordnung sind zwingend im Datenaustausch anzugeben bzw. zu übermitteln.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siehe Schlüssel BVG Anlage 3 Abschnitt 8.1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnoseschlüssel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falls auf der Verordnung ein ICD10-GM-Code als Diagnoseschlüssel aufgebracht ist, ist dieser zwingend anzugeben. Es sind nicht die Indikationsschlüssel anzugeben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnosetext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der auf der Verordnung angegebene Diagnosetext ist hier anzugeben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbetrag Eigenanteil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbetrag Eigenanteil Berechnungsregel: Summe über alle Abrechnungspositionen (ZUZ.Betrag Eigenanteil).</t>
   </si>
   <si>
     <t xml:space="preserve">Nr</t>
@@ -911,7 +1111,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1024,6 +1224,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1041,10 +1249,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1148,7 +1352,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="A22:E23 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1315,7 +1519,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="A22:E23 B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1629,7 +1833,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="A22:E23 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2017,14 +2221,14 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="1" sqref="A22:E23 B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2330,10 +2534,635 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="A22:E23 D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A22:E23 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2347,77 +3176,77 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>169</v>
+      <c r="A1" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="n">
+      <c r="A2" s="31" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="C2" s="18"/>
-      <c r="E2" s="29" t="s">
-        <v>171</v>
+      <c r="E2" s="31" t="s">
+        <v>237</v>
       </c>
       <c r="F2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="n">
+      <c r="A3" s="31" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="C3" s="22"/>
-      <c r="E3" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="30"/>
+      <c r="E3" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="n">
+      <c r="A4" s="31" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="E4" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="32"/>
+        <v>240</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="E4" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="n">
+      <c r="A5" s="31" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="E5" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="34"/>
+        <v>242</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="E5" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="n">
+      <c r="A6" s="31" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="C6" s="17"/>
     </row>

--- a/doc/Felder.xlsx
+++ b/doc/Felder.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="288">
   <si>
     <t xml:space="preserve">Segment</t>
   </si>
@@ -549,6 +549,96 @@
     <t xml:space="preserve">Die Anzahl der Gesamtpakete wird 2-stellig rechtsbündig in das Feld DATEI_BEZEICHNUNG (Stelle 347- 348) gespeichert. Alternative Nutzung: Variabler Bereich, um Zusatzinformationen zur Datei bereitzustellen</t>
   </si>
   <si>
+    <t xml:space="preserve">EHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leistungserbringergruppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenelementgruppe bestehend aus Abrechnungscode:Tarifkennzeichen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Abrechnungscode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siehe Schlüssel Abrechnungscode Anlage 3 Abschnitt 8.1.5.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 = Augenoptiker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Tarifkennzeichen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siehe Schlüssel Tarifkennzeichen Anlage 3 Abschnitt 8.1.5.2. Die Kennzeichnung „Leistungserbringergruppe“ wird für die Abrechnung benötigt, da hierüber die Zuordnung zur gültigen vertraglichen Vereinbarung /Festbetragsgruppe/ Gebührensatzung usw. und damit zu den Abrechnungspositionsnummern erfolgt. Jede Vereinbarung/Festbetragsgruppe /Gebührensatzung sieht entsprechende Kennzeichen vor. Dieses ist entsprechend den Vergütungsregeln anzugeben. Bei der Übermittlung von Kennzeichen für Sondertarife (3. - 5. Stelle) sind die zu übermittelnden Buchstaben ausschließlich in Großbuchstaben zulässig.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00 = Bundeseinheitlicher Tarif (gültig für Ost und West)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art der abgegebenen Leistung (Abrechnungspositionsnummer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siehe Schlüssel Abrechnungspositionsnummer Anlage 3 Abschnitt 8.2.1 bis 8.2.10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzahl/Menge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzahl der Abrechnungspositionen z.B. 1 x Massage; 20 Kilometer usw. Es dürfen nur dann Abrechnungspositionen in einem ENF-Segment zusammengefasst werden, wenn sie am selben Tag erbracht worden sind. Andernfalls ist für jeden Tag der Leistungserbringung ein eigenes ENF-Segment zu erstellen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einzelbetrag der Abrechnungsposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einzelpreis (vereinbarter Preis/Festbetrag) Als Einzelpreis ist immer der Preis einer Abrechnungsposition zu verstehen. Sofern ein Nettopreis zuzüglich MwSt. vereinbart wurde, ist der Nettopreis in ENF anzugeben und das Segment MWS zu füllen. Ist der Einzelpreis inklusive MwSt. vereinbart, ist dieser in ENF anzugeben und kein Segment MWS anzugeben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum der Leistungserbringung 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag der Leistungserbringung (JJJJMMTT).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betrag der Zuzahlung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Einzelbetrag der prozentualen Zuzahlung bzw. der Zuzahlungsbetrag pro Tag ist zwingend je Abrechnungsposition zu berechnen und anzugeben, sofern dieser vom Versicherten zu entrichten ist. Berechnungsregel: (ENF.Einzelbetrag der Abrechnungsposition plus ggf. MWS.Betrag Mehrwertsteuer*) mal Zuzahlungsprozentsatz * Der Betrag Mehrwertsteuer ist auf die einzelne Position mit dem Mengenfaktor 1 herunterzurechnen und kaufmännisch zu runden. (Der ermittelte Betrag ist kaufmännisch zu runden).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gefahrene Kilometer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzahl der gefahrenen Kilometer/ bzw. anteilige Kilometer. Das Datenfeld enthält Angaben über die Kilometeranzahl, die z.B. in einer Pauschale abgerechnet werden. Sofern Einzelkilometer abgerechnet werden, sind diese im Datenfeld Anzahl/Menge in ENF angegeben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text für Begründung/Beschreibung der Abrechnungspositionsnummer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzeichen Mehrwertsteuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siehe Schlüssel Kennzeichen Mehrwert-steuer Anlage 3 Abschnitt 8.1.8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 = voller Mehrwertsteuersatz, dem Einzelbetrag zuzurechnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betrag Mehrwertsteuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berechnungsregel: ENF.Einzelbetrag der Abrechnungsposition (NETTO) mal ENF.Anzahl/Menge mal Mehrwertsteuerprozentsatz (Der ermittelte Betrag ist kaufmännisch zu runden.).</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZHE</t>
   </si>
   <si>
@@ -709,6 +799,45 @@
   </si>
   <si>
     <t xml:space="preserve">Forderung Pauschaler Zuzahlungsbetrag je Abrechnungsfall (Verordnungsblatt): 10,00 Euro, jedoch höchstens die Differenz Gesamtbetrag Brutto abzüglich Gesamtbetrag prozentuale Zuzahlung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifikationsnummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zur Identifikation aller zuzahlungstechnisch zusammengehörenden Abrechnungspositionen ist jeweils die gleiche Identifikationsnummer zu übermitteln. Bei der Abrechnung von zuzahlungsfreien Positionsnummern im Zusammenhang mit zuzahlungspflichtigen Positionsnummern sind die zuzahlungsfreien Positionsnummern mit einer eigenen Identifikationsnummer anzugeben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uhrzeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHMM (Wertebereich HH 00 bis 23, MM 00 bis 59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uhrzeit bis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeitangabe in Minuten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versorgungszeitraum von</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JJJJMMTT. Beginn des Versorgungszeitraumes. Angabe erfolgt soweit vorgesehen bzw. vertraglich vereinbart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versorgungszeitraum bis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JJJJMMTT. Ende des Versorgungszeitraumes. Angabe erfolgt soweit vorgesehen bzw. vertraglich vereinbart Das Feld "Versorgungszeitraum bis" ist zwingend anzugeben, wenn das Feld "Versorgungszeitraum von" vorhanden ist.</t>
   </si>
   <si>
     <t xml:space="preserve">ZUV</t>
@@ -1111,7 +1240,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1224,12 +1353,32 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1249,6 +1398,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1352,7 +1505,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="A22:E23 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="A14:E35 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1519,7 +1672,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="A22:E23 B19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="A14:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1833,7 +1986,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="A22:E23 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="A14:E35 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2222,13 +2375,13 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="1" sqref="A22:E23 B25"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="A14:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2534,10 +2687,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22:E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2545,7 +2698,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2566,89 +2719,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
         <v>166</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
         <v>166</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>176</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
         <v>166</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
         <v>166</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
         <v>166</v>
       </c>
@@ -2658,107 +2811,103 @@
       <c r="C8" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
         <v>166</v>
       </c>
       <c r="B10" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="B11" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="C11" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="27" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="B12" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="27" t="s">
+      <c r="C12" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="D12" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="27" t="s">
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="27" t="s">
         <v>196</v>
       </c>
@@ -2768,101 +2917,267 @@
       <c r="C16" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
+      <c r="C17" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="D17" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="C18" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="21" t="s">
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" s="21" t="s">
+      <c r="D21" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="C22" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="D22" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="29"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2880,17 +3195,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="A22:E23 D15"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="A14:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
@@ -2912,236 +3227,476 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="28" t="s">
+    <row r="2" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C3" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>198</v>
-      </c>
       <c r="D11" s="27"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C21" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="C23" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="D23" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C26" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="D26" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="C31" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="29"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3162,7 +3717,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A22:E23 C5"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A14:E35 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3176,77 +3731,77 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>235</v>
+      <c r="A1" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="n">
+      <c r="A2" s="36" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="C2" s="18"/>
-      <c r="E2" s="31" t="s">
-        <v>237</v>
+      <c r="E2" s="36" t="s">
+        <v>280</v>
       </c>
       <c r="F2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="n">
+      <c r="A3" s="36" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="C3" s="22"/>
-      <c r="E3" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" s="32"/>
+      <c r="E3" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="n">
+      <c r="A4" s="36" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="E4" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="34"/>
+        <v>283</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="E4" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="n">
+      <c r="A5" s="36" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="E5" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="35"/>
+        <v>285</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="E5" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="n">
+      <c r="A6" s="36" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="C6" s="17"/>
     </row>
